--- a/biology/Zoologie/Fejervarya_limnocharis/Fejervarya_limnocharis.xlsx
+++ b/biology/Zoologie/Fejervarya_limnocharis/Fejervarya_limnocharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya limnocharis est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya limnocharis est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie, au Brunei, à Singapour, en Malaisie, en Thaïlande, en Birmanie, au Laos, au Cambodge et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie, au Brunei, à Singapour, en Malaisie, en Thaïlande, en Birmanie, au Laos, au Cambodge et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya limnocharis mesure de 39 à 43 mm[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya limnocharis mesure de 39 à 43 mm. 
 Son dos est brun-gris ou vert olive parfois tacheté de rouge carmin.  
 Une tache sombre en forme de "V" est présente entre les yeux.  
 Une bande latérale jaune est généralement présente. 
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des analyses moléculaires ont démontré que Fejervarya limnocharis tel que traditionnellement considérée formait un complexe d'espèces[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des analyses moléculaires ont démontré que Fejervarya limnocharis tel que traditionnellement considérée formait un complexe d'espèces,.
 Les  populations de Chine, de Taïwan et du Japon ont été identifiées comme Fejervarya kawamurai et Fejervarya multistriata. Celles des Philippines, du Bangladesh, d'Inde, du Népal, du Sri Lanka et du Pakistan ne peuvent être attribuées à une espèce particulière qu'après analyses.
 </t>
         </is>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gravenhorst, 1829 : Deliciae Musei Zoologici Vratislaviensis (Reptilia Musei Zoologici Vratislaviensis. Recensita et Descripta). Fasciculus Primus, continens Chelonions et Batrachia: I-XIV. Leopold Voss, Leipzig (texte intégral).</t>
         </is>
